--- a/biology/Biochimie/Phospholipase_C/Phospholipase_C.xlsx
+++ b/biology/Biochimie/Phospholipase_C/Phospholipase_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phospholipases sont des enzymes hydrolysant les liaisons esters des phospholipides. Il existe quatre liaisons ester dans un phospholipide. On distingue donc plusieurs enzymes selon leur site d’action sur la molécule.
 La phospholipase C est l'une d'entre elles. Elle intervient sur la fonction ester liant le glycérol et le phosphate, libérant un diglycéride et un phosphoalcool.  In vivo, les phospholipases C catalysent l’hydrolyse du phosphatidylinositol-4,5-bisphosphate membranaire (PIP2) en diglycéride et inositol-1,4,5-trisphosphate (IP3).
@@ -518,7 +530,9 @@
           <t>La phospholipase Cβ</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La phospholipase Cβ est une enzyme transmembranaire. À la suite de son activation par un récepteur couplé aux protéines G, l’hydrolyse du PIP2 membranaire provoque une augmentation de la concentration intracellulaire du second messager IP3. La fixation d'IP3 sur ses récepteurs induit l’activation des canaux calciques des citernes du réticulum endoplasmique, provoquant la sortie du calcium de ces réserves et donc une augmentation de la concentration cytosolique des ions Ca2+.
 Pour une faible concentration de Ca2+ libérée on observe un phénomène de coopérativité positive entraînant une augmentation de l’affinité des autres sites pour IP3. Pour de fortes concentrations en calcium libérées on a un phénomène de Feed Back négatif qui se traduit par une baisse de l’affinité de l’IP3 pour ses récepteurs (mode de régulation en cloche).
@@ -555,7 +569,9 @@
           <t>La phospholipase Cγ</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La phospholipase Cγ diffère de la phospholipase Cβ de par sa structure. Elle possède deux domaines SH2, un domaine SH3 et un domaine PH (= Pleckstrin Homology). La phospholipase Cβ ne possède pas de domaine SH2. Elle permet la phosphorylation de protéines cytoplasmiques et nucléaires, ayant un rôle mitogéne et anti-apoptotique.
 </t>
@@ -587,6 +603,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -613,6 +631,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
